--- a/04.1-JavaScript/05-Developer-Skills/05. DEVELOPER SKILLS.xlsx
+++ b/04.1-JavaScript/05-Developer-Skills/05. DEVELOPER SKILLS.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24729"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25726"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/7b16b8fa2253ce71/Professional/06. JS/05. DEVELOPER SKILLS/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Balaji Kannigesvaran\Documents\GitHub\LEARNING\04.1-JavaScript\05-Developer-Skills\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="51" documentId="11_F25DC773A252ABDACC10488511186F265ADE58F7" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1835C591-849C-4E55-BB99-90203C25B1E4}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31835D9A-FA53-4279-8B8B-9A6D3560D715}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -359,9 +359,6 @@
     <t>How to think like a developer?</t>
   </si>
   <si>
-    <t>Pseudocode is note a doe for computers</t>
-  </si>
-  <si>
     <t>It is for humans</t>
   </si>
   <si>
@@ -390,6 +387,9 @@
   </si>
   <si>
     <t>Use source in dev tools for debugging</t>
+  </si>
+  <si>
+    <t>Pseudocode is note a done for computers</t>
   </si>
 </sst>
 </file>
@@ -1443,8 +1443,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B157"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" topLeftCell="A147" zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
+      <selection activeCell="B158" sqref="B158"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2055,25 +2055,25 @@
     <row r="123" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A123" s="1"/>
       <c r="B123" s="2" t="s">
-        <v>56</v>
+        <v>66</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A124" s="1"/>
       <c r="B124" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A125" s="1"/>
       <c r="B125" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A126" s="1"/>
       <c r="B126" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.3">
@@ -2118,13 +2118,13 @@
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A137" s="11" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B137" s="12"/>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A138" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B138" s="2"/>
     </row>
@@ -2184,31 +2184,31 @@
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A152" s="11" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B152" s="12"/>
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A153" s="13" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B153" s="14"/>
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A154" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B154" s="2"/>
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A155" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B155" s="2"/>
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A156" s="10" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B156" s="8"/>
     </row>
